--- a/Normalizacion Proyecto 6.4.xlsx
+++ b/Normalizacion Proyecto 6.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maik\Documents\005 SENA\Proyecto\Git-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E441A-2C1D-4266-BA42-8253B49A8EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A607F-2E21-424A-AD04-34EAEDAFD6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{58E0D687-0769-4356-A1F5-49534DDA1111}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="206">
   <si>
     <t xml:space="preserve">Generaremos una base datos donde guardaremos todo tipo de dato del colegio desde nombres cursos tipo de personal etc... </t>
   </si>
@@ -543,9 +543,6 @@
     <t xml:space="preserve">ID Registro </t>
   </si>
   <si>
-    <t>Codigos de manilla con Registro de salidas</t>
-  </si>
-  <si>
     <t>Registro de manilla</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>Alumno Jornada</t>
   </si>
   <si>
-    <t>Usuarios con jorandas</t>
-  </si>
-  <si>
     <t>Alumno con horario</t>
   </si>
   <si>
@@ -606,9 +600,6 @@
     <t>Alumno con manilla</t>
   </si>
   <si>
-    <t>Peronal Administrativo</t>
-  </si>
-  <si>
     <t>Personal Administrativo con horario</t>
   </si>
   <si>
@@ -640,6 +631,18 @@
   </si>
   <si>
     <t>JOR 004</t>
+  </si>
+  <si>
+    <t>Docente con curso</t>
+  </si>
+  <si>
+    <t>Manilla con Registro de salidas</t>
+  </si>
+  <si>
+    <t>Usuarios con Jornada</t>
+  </si>
+  <si>
+    <t>Personal Administrativo con Jornada</t>
   </si>
 </sst>
 </file>
@@ -893,12 +896,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -908,6 +906,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,9 +924,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -928,12 +934,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1250,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8ADD9-0E4C-4CEC-852D-0C3173BE6A74}">
   <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,15 +1288,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1315,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>140</v>
@@ -2031,7 +2034,7 @@
         <v>139</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>140</v>
@@ -2787,25 +2790,25 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="N27" s="26" t="s">
+      <c r="A27" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="N27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -2815,7 +2818,7 @@
         <v>135</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>95</v>
@@ -2833,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>8</v>
@@ -2946,19 +2949,19 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="A32" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
       <c r="N32" s="1" t="s">
         <v>52</v>
       </c>
@@ -2967,10 +2970,10 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>95</v>
@@ -2988,13 +2991,13 @@
         <v>2</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I33" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>11</v>
@@ -3061,18 +3064,18 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
+      <c r="A36" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
       <c r="N36" s="7" t="s">
         <v>52</v>
       </c>
@@ -3085,10 +3088,10 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>95</v>
@@ -3106,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I37" s="22" t="s">
         <v>8</v>
@@ -3146,12 +3149,12 @@
       <c r="J38" s="2">
         <v>36069</v>
       </c>
-      <c r="M38" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
+      <c r="M38" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -3256,19 +3259,19 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="A42" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
       <c r="M42" s="1">
         <v>77455203</v>
       </c>
@@ -3284,10 +3287,10 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>95</v>
@@ -3302,7 +3305,7 @@
         <v>111</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>2</v>
@@ -3311,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>11</v>
@@ -3349,19 +3352,19 @@
       <c r="K44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M44" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="41"/>
+      <c r="M44" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="34"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -3401,7 +3404,7 @@
         <v>135</v>
       </c>
       <c r="N45" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O45" s="9" t="s">
         <v>95</v>
@@ -3419,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U45" s="9" t="s">
         <v>8</v>
@@ -3428,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -3465,16 +3468,16 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="A47" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
       <c r="M47" s="11" t="s">
         <v>136</v>
       </c>
@@ -3763,29 +3766,29 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="L60" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="L60" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="30"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="29"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
@@ -3804,7 +3807,7 @@
         <v>111</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>2</v>
@@ -3816,10 +3819,10 @@
         <v>11</v>
       </c>
       <c r="L61" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M61" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="M61" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="N61" s="22" t="s">
         <v>95</v>
@@ -3837,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="S61" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T61" s="22" t="s">
         <v>8</v>
@@ -4072,26 +4075,26 @@
       <c r="I66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L66" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
+      <c r="L66" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="26"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L67" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M67" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="M67" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>95</v>
@@ -4106,7 +4109,7 @@
         <v>111</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S67" s="22" t="s">
         <v>2</v>
@@ -4115,27 +4118,27 @@
         <v>8</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V67" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="E68" s="33" t="s">
+      <c r="A68" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="E68" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="25"/>
-      <c r="I68" s="33" t="s">
+      <c r="F68" s="38"/>
+      <c r="G68" s="31"/>
+      <c r="I68" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="J68" s="34"/>
+      <c r="J68" s="42"/>
       <c r="L68" s="11" t="s">
         <v>136</v>
       </c>
@@ -4272,13 +4275,13 @@
       <c r="G71" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L71" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
+      <c r="L71" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -4299,12 +4302,12 @@
       <c r="G72" s="4">
         <v>0.77083333333333337</v>
       </c>
-      <c r="I72" s="33" t="s">
+      <c r="I72" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J72" s="30"/>
+      <c r="J72" s="29"/>
       <c r="L72" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>76</v>
@@ -4318,10 +4321,10 @@
       <c r="P72" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="33" t="s">
+      <c r="R72" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="S72" s="25"/>
+      <c r="S72" s="31"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -4367,7 +4370,7 @@
         <v>162</v>
       </c>
       <c r="S73" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -4483,32 +4486,32 @@
       <c r="G77" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I77" s="42" t="s">
-        <v>202</v>
+      <c r="I77" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L77" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
+        <v>200</v>
+      </c>
+      <c r="L77" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="26"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L78" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M78" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="M78" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="N78" s="22" t="s">
         <v>95</v>
@@ -4526,31 +4529,31 @@
         <v>2</v>
       </c>
       <c r="S78" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T78" s="22" t="s">
         <v>8</v>
       </c>
       <c r="U78" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V78" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="G79" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="A79" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="G79" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
       <c r="L79" s="11" t="s">
         <v>136</v>
       </c>
@@ -4636,19 +4639,19 @@
       <c r="I81" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L81" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="41"/>
+      <c r="L81" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
+      <c r="V81" s="34"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -4679,7 +4682,7 @@
         <v>135</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N82" s="9" t="s">
         <v>95</v>
@@ -4697,13 +4700,13 @@
         <v>2</v>
       </c>
       <c r="S82" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T82" s="9" t="s">
         <v>8</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V82" s="9" t="s">
         <v>11</v>
@@ -4837,44 +4840,44 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B87" s="32"/>
-      <c r="D87" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="32"/>
-      <c r="G87" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="H87" s="32"/>
-      <c r="J87" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="K87" s="32"/>
+      <c r="A87" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="D87" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="G87" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H87" s="36"/>
+      <c r="J87" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>148</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H88" s="23" t="s">
         <v>142</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>144</v>
@@ -4947,40 +4950,40 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" s="35"/>
+      <c r="G92" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" s="35"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E92" s="31"/>
-      <c r="G92" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="H92" s="31"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B93" s="32"/>
+      <c r="B93" s="36"/>
       <c r="D93" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>148</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H93" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J93" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="K93" s="32"/>
+      <c r="J93" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B94" s="22" t="s">
         <v>15</v>
@@ -4998,7 +5001,7 @@
         <v>160</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>144</v>
@@ -5019,14 +5022,14 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D96" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E96" s="31"/>
-      <c r="G96" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="H96" s="31"/>
+      <c r="D96" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="35"/>
+      <c r="G96" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H96" s="35"/>
       <c r="J96" s="1">
         <v>47785432</v>
       </c>
@@ -5034,19 +5037,19 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="B97" s="32"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="36"/>
       <c r="D97" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>148</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H97" s="19" t="s">
         <v>142</v>
@@ -5058,9 +5061,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>15</v>
@@ -5078,7 +5081,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>26343543</v>
       </c>
@@ -5097,12 +5100,12 @@
       <c r="H99" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J99" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="K99" s="25"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J99" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K99" s="31"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>37454675</v>
       </c>
@@ -5116,17 +5119,17 @@
         <v>161</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K100" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D101" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E101" s="31"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D101" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" s="35"/>
       <c r="J101" s="1">
         <v>1001200724</v>
       </c>
@@ -5134,23 +5137,23 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D102" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G102" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="H102" s="31"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B103" s="32"/>
+      <c r="G102" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H102" s="35"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="36"/>
       <c r="D103" s="1">
         <v>78543456</v>
       </c>
@@ -5158,23 +5161,23 @@
         <v>149</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H103" s="19" t="s">
         <v>142</v>
       </c>
       <c r="I103" s="17"/>
-      <c r="J103" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="K103" s="25"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J103" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="K103" s="31"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D104" s="1">
         <v>36465739</v>
@@ -5189,13 +5192,13 @@
         <v>160</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>98011024528</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1001200724</v>
       </c>
@@ -5223,26 +5226,25 @@
         <v>80574383</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>99121700065</v>
       </c>
       <c r="B107" s="1">
         <v>77455203</v>
       </c>
-      <c r="G107" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="H107" s="31"/>
-      <c r="J107" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="K107" s="32"/>
-      <c r="L107" s="32"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G107" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H107" s="35"/>
+      <c r="J107" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="K107" s="31"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G108" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H108" s="19" t="s">
         <v>142</v>
@@ -5250,14 +5252,11 @@
       <c r="J108" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K108" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="L108" s="19" t="s">
+      <c r="K108" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G109" s="1">
         <v>78543456</v>
       </c>
@@ -5267,72 +5266,66 @@
       <c r="J109" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K109" s="1">
-        <v>37454675</v>
-      </c>
-      <c r="L109" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G110" s="1">
         <v>36465739</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K110" s="1">
-        <v>56789654</v>
-      </c>
-      <c r="L110" s="1" t="s">
+      <c r="K110" s="1" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="L77:V77"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="G102:H102"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D92:E92"/>
     <mergeCell ref="M38:P38"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="N27:P27"/>
     <mergeCell ref="A47:H47"/>
     <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L77:V77"/>
     <mergeCell ref="A32:K32"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="M44:W44"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="L66:V66"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="L60:U60"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="L81:V81"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="J103:K103"/>
     <mergeCell ref="L71:P71"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="I72:J72"/>
     <mergeCell ref="G79:I79"/>
     <mergeCell ref="A68:C68"/>
-    <mergeCell ref="L81:V81"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="L66:V66"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="L60:U60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
